--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_32.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_32.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_9</t>
+          <t>model_1_32_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9935951286618188</v>
+        <v>0.9106364071994419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7192412591010787</v>
+        <v>0.6857776759239183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7075513040383754</v>
+        <v>0.6698517725276658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9940631622848001</v>
+        <v>0.1632135048395263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02687987486003725</v>
+        <v>0.3750398820976845</v>
       </c>
       <c r="G2" t="n">
-        <v>1.877434993166217</v>
+        <v>2.101206127957521</v>
       </c>
       <c r="H2" t="n">
-        <v>1.046072028305042</v>
+        <v>1.180921066574417</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04852830833678145</v>
+        <v>1.171008397823396</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2997305535942533</v>
+        <v>2.301349017203841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1639508306171007</v>
+        <v>0.6124049984264371</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003749192978447</v>
+        <v>0.6936105389695153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1709305569014773</v>
+        <v>0.6384763470625616</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2327548376852</v>
+        <v>35.96144581281247</v>
       </c>
       <c r="O2" t="n">
-        <v>216.4596834541182</v>
+        <v>56.68233483557188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_8</t>
+          <t>model_1_32_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9935823669506424</v>
+        <v>0.9110258641340084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.719061886096003</v>
+        <v>0.6855292764675724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.707204761854763</v>
+        <v>0.6691249778086057</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9942437805466818</v>
+        <v>0.1645459695855761</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02693343303182712</v>
+        <v>0.3734054146569234</v>
       </c>
       <c r="G3" t="n">
-        <v>1.878634461277095</v>
+        <v>2.10286717626588</v>
       </c>
       <c r="H3" t="n">
-        <v>1.047311589602154</v>
+        <v>1.183520769142516</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0470519165059234</v>
+        <v>1.169143731727024</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3023610945253447</v>
+        <v>2.292851060025755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1641140854156861</v>
+        <v>0.6110690751927506</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003756663248405</v>
+        <v>0.6949458198880289</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1711007617948226</v>
+        <v>0.6370835508110747</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2287738009066</v>
+        <v>35.97018109404755</v>
       </c>
       <c r="O3" t="n">
-        <v>216.4557024173396</v>
+        <v>56.69107011680696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_7</t>
+          <t>model_1_32_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9935674667849304</v>
+        <v>0.9144756767354931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.718879868591949</v>
+        <v>0.682954699923938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7068521890875028</v>
+        <v>0.6620330636856792</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9944232702458351</v>
+        <v>0.1759778261933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02699596583983906</v>
+        <v>0.3589272891611474</v>
       </c>
       <c r="G4" t="n">
-        <v>1.879851613164818</v>
+        <v>2.120083381467999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0485727219473</v>
+        <v>1.208888134747417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04558474966026675</v>
+        <v>1.15314586349208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3050174423161585</v>
+        <v>2.204477380101405</v>
       </c>
       <c r="K4" t="n">
-        <v>0.164304491234534</v>
+        <v>0.5991054073876712</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003765385296626</v>
+        <v>0.7067737488074051</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1712992735835732</v>
+        <v>0.6246105648993265</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2241356749608</v>
+        <v>36.04927089632571</v>
       </c>
       <c r="O4" t="n">
-        <v>216.4510642913938</v>
+        <v>56.77015991908512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_6</t>
+          <t>model_1_32_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.993550445423762</v>
+        <v>0.9147766095731682</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7186951441392233</v>
+        <v>0.6825985745347463</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7064937990515103</v>
+        <v>0.6613380597693055</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9946016013176072</v>
+        <v>0.1768989762060035</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02706740085140979</v>
+        <v>0.3576643384177405</v>
       </c>
       <c r="G5" t="n">
-        <v>1.881086866430773</v>
+        <v>2.122464793585331</v>
       </c>
       <c r="H5" t="n">
-        <v>1.049854662325397</v>
+        <v>1.211374123457643</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04412705355130471</v>
+        <v>1.151856795842483</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3077006137308324</v>
+        <v>2.195389420586041</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1645217336749458</v>
+        <v>0.5980504480541258</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003775349020237</v>
+        <v>0.7078055185365767</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1715257644844271</v>
+        <v>0.6235106937628853</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2188503915968</v>
+        <v>36.05632066918078</v>
       </c>
       <c r="O5" t="n">
-        <v>216.4457790080299</v>
+        <v>56.77720969194019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_5</t>
+          <t>model_1_32_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9935311386871519</v>
+        <v>0.9159022301985268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.718507730236736</v>
+        <v>0.6811837281752927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7061292975615683</v>
+        <v>0.6585770417193497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9947786717756082</v>
+        <v>0.1801301009153204</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0271484270948166</v>
+        <v>0.3529403494487275</v>
       </c>
       <c r="G6" t="n">
-        <v>1.882340104059667</v>
+        <v>2.131925877705765</v>
       </c>
       <c r="H6" t="n">
-        <v>1.051158463019908</v>
+        <v>1.22125012492931</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0426796618260421</v>
+        <v>1.147335123718342</v>
       </c>
       <c r="J6" t="n">
-        <v>0.310408869362971</v>
+        <v>2.158767886833227</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1647677975055095</v>
+        <v>0.5940878297429829</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003786650524594</v>
+        <v>0.7116647892520919</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1717823037616804</v>
+        <v>0.6193793785864864</v>
       </c>
       <c r="N6" t="n">
-        <v>137.212872336346</v>
+        <v>36.08291243611902</v>
       </c>
       <c r="O6" t="n">
-        <v>216.4398009527791</v>
+        <v>56.80380145887843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_4</t>
+          <t>model_1_32_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9935094989830521</v>
+        <v>0.9166655413296398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7183174643969157</v>
+        <v>0.680504625015806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7057587069252034</v>
+        <v>0.6565230489538203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9949543707865118</v>
+        <v>0.1820515467063376</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02723924430370325</v>
+        <v>0.3497368959208974</v>
       </c>
       <c r="G7" t="n">
-        <v>1.883612412606639</v>
+        <v>2.136467043660235</v>
       </c>
       <c r="H7" t="n">
-        <v>1.052484044238106</v>
+        <v>1.228597137954265</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04124348044723036</v>
+        <v>1.144646230947897</v>
       </c>
       <c r="J7" t="n">
-        <v>0.313148552929581</v>
+        <v>2.13112024222478</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1650431589121562</v>
+        <v>0.5913855729732485</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003799317668457</v>
+        <v>0.7142818559873366</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1720693878734847</v>
+        <v>0.6165620811516217</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2061930804809</v>
+        <v>36.10114826625319</v>
       </c>
       <c r="O7" t="n">
-        <v>216.4331216969139</v>
+        <v>56.8220372890126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_3</t>
+          <t>model_1_32_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9934854991136555</v>
+        <v>0.91690480606739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7181245077006526</v>
+        <v>0.6802796461410046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7053817464050658</v>
+        <v>0.6558409471490914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.995128675436676</v>
+        <v>0.1825931566639547</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02733996662144798</v>
+        <v>0.3487327530006792</v>
       </c>
       <c r="G8" t="n">
-        <v>1.884902714923034</v>
+        <v>2.137971478431965</v>
       </c>
       <c r="H8" t="n">
-        <v>1.053832410161211</v>
+        <v>1.231036976559245</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03981869671328242</v>
+        <v>1.143888295904272</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3159120243196687</v>
+        <v>2.121888041112601</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1653480166843497</v>
+        <v>0.5905359878963171</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003813366372494</v>
+        <v>0.7151021922310514</v>
       </c>
       <c r="M8" t="n">
-        <v>0.172387224072183</v>
+        <v>0.6156763274790819</v>
       </c>
       <c r="N8" t="n">
-        <v>137.1988113371117</v>
+        <v>36.10689880166186</v>
       </c>
       <c r="O8" t="n">
-        <v>216.4257399535447</v>
+        <v>56.82778782442127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_2</t>
+          <t>model_1_32_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.993459048035376</v>
+        <v>0.9171367038072992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7179285234246091</v>
+        <v>0.6800806377093451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7049985082987401</v>
+        <v>0.6551603068234958</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9953014826731807</v>
+        <v>0.1830861098330396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02745097613850516</v>
+        <v>0.3477595277944326</v>
       </c>
       <c r="G9" t="n">
-        <v>1.886213262679362</v>
+        <v>2.139302248730821</v>
       </c>
       <c r="H9" t="n">
-        <v>1.055203230646116</v>
+        <v>1.233471587538107</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0384061529891281</v>
+        <v>1.143198451715735</v>
       </c>
       <c r="J9" t="n">
-        <v>0.318705601197305</v>
+        <v>2.112649993036696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1656833610792139</v>
+        <v>0.5897113936447494</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003828849930512</v>
+        <v>0.7158972701964543</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1727368447721951</v>
+        <v>0.6148166285430794</v>
       </c>
       <c r="N9" t="n">
-        <v>137.1907071021152</v>
+        <v>36.11248810030304</v>
       </c>
       <c r="O9" t="n">
-        <v>216.4176357185482</v>
+        <v>56.83337712306245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_1</t>
+          <t>model_1_32_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9934300723521837</v>
+        <v>0.9177884510800827</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7177296285039697</v>
+        <v>0.67930189730663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7046086641393077</v>
+        <v>0.653124159535443</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9954726663564789</v>
+        <v>0.1842619741562401</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02757258088231163</v>
+        <v>0.3450242839139886</v>
       </c>
       <c r="G10" t="n">
-        <v>1.887543273929504</v>
+        <v>2.144509689389547</v>
       </c>
       <c r="H10" t="n">
-        <v>1.056597680599943</v>
+        <v>1.240754768324869</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03700688035210666</v>
+        <v>1.141552934005863</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3215269541247241</v>
+        <v>2.084936372638367</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1660499349060746</v>
+        <v>0.5873876777001613</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003845811306039</v>
+        <v>0.7181318322745691</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1731190244057778</v>
+        <v>0.6123939871999752</v>
       </c>
       <c r="N10" t="n">
-        <v>137.1818668926938</v>
+        <v>36.12828095254284</v>
       </c>
       <c r="O10" t="n">
-        <v>216.4087955091269</v>
+        <v>56.84916997530225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_0</t>
+          <t>model_1_32_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9933984574603464</v>
+        <v>0.9179912211041475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7175278353448786</v>
+        <v>0.6790878596559025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7042123672647326</v>
+        <v>0.6524471474792312</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9956421326843305</v>
+        <v>0.184552447799737</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02770526182021482</v>
+        <v>0.3441733015000658</v>
       </c>
       <c r="G11" t="n">
-        <v>1.888892665713519</v>
+        <v>2.145940960145514</v>
       </c>
       <c r="H11" t="n">
-        <v>1.058015211541685</v>
+        <v>1.243176401194524</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03562164555115631</v>
+        <v>1.141146441934291</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3243777590094638</v>
+        <v>2.07571172270721</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1664489766271178</v>
+        <v>0.5866628516448487</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003864317584187</v>
+        <v>0.7188270437856488</v>
       </c>
       <c r="M11" t="n">
-        <v>0.173535054159016</v>
+        <v>0.6116383037988911</v>
       </c>
       <c r="N11" t="n">
-        <v>137.17226585284</v>
+        <v>36.13321993006917</v>
       </c>
       <c r="O11" t="n">
-        <v>216.399194469273</v>
+        <v>56.85410895282858</v>
       </c>
     </row>
   </sheetData>
